--- a/Documents/Technische_Dokumentation/System_Tests.xlsx
+++ b/Documents/Technische_Dokumentation/System_Tests.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>Alle Systemtests sollen mit der fertigen Release-Version getestet werden. Gefundene Fehler müssen vor der Auslieferung an den Kunden ausgebessert werden</t>
   </si>
@@ -39,9 +39,6 @@
     <t>Tester</t>
   </si>
   <si>
-    <t>Ergebnis</t>
-  </si>
-  <si>
     <t>Vorbedingungen</t>
   </si>
   <si>
@@ -85,6 +82,12 @@
   </si>
   <si>
     <t>Laden eines ungültigen .txt Files und senden an den Server</t>
+  </si>
+  <si>
+    <t>FEHLER</t>
+  </si>
+  <si>
+    <t>Ergebnis (OK, n.OK)</t>
   </si>
 </sst>
 </file>
@@ -418,7 +421,7 @@
   <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -459,7 +462,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
@@ -471,12 +474,14 @@
         <v>5</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -486,21 +491,21 @@
     </row>
     <row r="3" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -513,21 +518,21 @@
     </row>
     <row r="4" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -540,21 +545,21 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -567,21 +572,21 @@
     </row>
     <row r="6" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
